--- a/FILES/2.1 观光车BCM功能说明(18.5.4).xlsx
+++ b/FILES/2.1 观光车BCM功能说明(18.5.4).xlsx
@@ -179,13 +179,112 @@
     <t>刹车灯控制指令</t>
   </si>
   <si>
+    <t>制动控制</t>
+  </si>
+  <si>
+    <t>刹车开关信号</t>
+  </si>
+  <si>
+    <t>主动制动控制指令(硬线6Mpa)</t>
+  </si>
+  <si>
+    <t>挡位控制</t>
+  </si>
+  <si>
+    <t>D挡开关信号</t>
+  </si>
+  <si>
+    <t>挡位控制信号</t>
+  </si>
+  <si>
+    <t>D挡控制指令</t>
+  </si>
+  <si>
+    <t>挡位状态信号</t>
+  </si>
+  <si>
+    <t>1.在有人模式下，BCM采集“D挡开关信号”高电平12V后，输出“D挡控制指令”高电平48V，给电机控制器；
+               BCM采集“R挡开关信号”高电平12V后，输出“R挡控制指令”高电平48V，给电机控制器，同时输出“倒车灯控制指令”12V高电平，控制倒车灯继电器吸合；；
+2.在无人模式下，BCM采集“D挡开关信号”或“R挡开关信号”任何指令，均不执行任何动作。
+3.在无人模式下，BCM接收VCU下发的“挡位控制信号”0x1后，输出“D挡控制指令”高电平48V，给电机控制器，反馈挡位状态信号0x1给VCU；
+               BCM接收VCU下发的“挡位控制信号”0x2后，输出“R挡控制指令”高电平48V，给电机控制器，同时输出“倒车灯控制指令”12V高电平，控制倒车灯继电器吸合，反馈挡位状态信号0x2给VCU；</t>
+  </si>
+  <si>
+    <t>R挡开关信号</t>
+  </si>
+  <si>
+    <t>R挡控制指令</t>
+  </si>
+  <si>
+    <t>倒车灯控制指令</t>
+  </si>
+  <si>
+    <t>油门控制</t>
+  </si>
+  <si>
+    <t>油门开关信号12V</t>
+  </si>
+  <si>
+    <t>油门使能信号</t>
+  </si>
+  <si>
+    <t>油门使能信号48V</t>
+  </si>
+  <si>
+    <t>1.在有人模式下，BCM接收到“油门开关信号12V”，输出“油门使能信号48V”给电机控制器；
+2.在无人模式下，BCM接收到“油门开关信号12V”，不执行任何动作；
+3.在无人模式下，BCM接收VCU下发“油门使能信号0x1”，输出“油门控制信号48V”给电机控制器。</t>
+  </si>
+  <si>
+    <t>油门采集信号0~5V</t>
+  </si>
+  <si>
+    <t>油门VCU信号0~5V</t>
+  </si>
+  <si>
+    <t>油门控制信号0~5V</t>
+  </si>
+  <si>
+    <t>油门信号反馈</t>
+  </si>
+  <si>
+    <t>1.在有人模式下，BCM接收到“油门采集信号0~5V”，完全模拟采集信号，输出“油门控制信号0~5V”给电机控制器；
+2.在无人模式下，BCM接收到“油门采集信号0~5V”，不执行任何动作；
+3.在无人模式下，BCM接收VCU下发“油门信号1”，输出“油门控制信号0~5V”给电机控制器。(油门信号0-5V对应0-100%最大油门信号)</t>
+  </si>
+  <si>
+    <t>车速信号</t>
+  </si>
+  <si>
+    <t>车速传感器信号</t>
+  </si>
+  <si>
+    <t>BCM采集从车速传感器硬线连接到仪表的“车速传感器信号”后换算成车速信号发给VCU。（每转8个脉冲信号）</t>
+  </si>
+  <si>
+    <r>
+      <t>自动驾驶状态的切换有两种方法：</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">
+1.手动操作自动驾驶切换开关，实现自动驾驶/人工驾驶状态的切换。
+  开关闭合高电平12V，为无人驾驶模式，BCM向VCU反馈“自动驾驶状态信息0x1”
+  开关断开低电平0V，为有人驾驶模式，BCM向VCU反馈“自动驾驶状态信息0x0”，有人模式下BCM不执行VCU任何指令。
+2.VCU通过CAN总线给BCM发送自动驾驶指令信号0x0为人工驾驶、0x1为自动驾驶。
+在自动驾驶模式下，BCM转向、制动相关信息发送给VCU，VCU判定是否人工干预了驾驶，当判定人工干预后切换到人工驾驶模式。且此时切换为人工模式后，禁止自动切回到无人驾驶模式。若确需切回，则手动将自动驾驶开关先断开切换到有人模式，再闭合切换到无人模式，此时方才可切回到无人驾驶模式。有人模式下BCM不执行VCU任何指令。
+</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>BCM</t>
     </r>
     <r>
@@ -226,148 +325,23 @@
       </rPr>
       <t>或者“后桥制动压力回馈”当任一不为0，即输出“刹车灯控制指令”12V高电平，控制刹车灯继电器吸合。</t>
     </r>
-  </si>
-  <si>
-    <t>制动控制</t>
-  </si>
-  <si>
-    <t>刹车开关信号</t>
-  </si>
-  <si>
-    <t>主动制动控制指令(硬线6Mpa)</t>
-  </si>
-  <si>
-    <t>挡位控制</t>
-  </si>
-  <si>
-    <t>D挡开关信号</t>
-  </si>
-  <si>
-    <t>挡位控制信号</t>
-  </si>
-  <si>
-    <t>D挡控制指令</t>
-  </si>
-  <si>
-    <t>挡位状态信号</t>
-  </si>
-  <si>
-    <t>1.在有人模式下，BCM采集“D挡开关信号”高电平12V后，输出“D挡控制指令”高电平48V，给电机控制器；
-               BCM采集“R挡开关信号”高电平12V后，输出“R挡控制指令”高电平48V，给电机控制器，同时输出“倒车灯控制指令”12V高电平，控制倒车灯继电器吸合；；
-2.在无人模式下，BCM采集“D挡开关信号”或“R挡开关信号”任何指令，均不执行任何动作。
-3.在无人模式下，BCM接收VCU下发的“挡位控制信号”0x1后，输出“D挡控制指令”高电平48V，给电机控制器，反馈挡位状态信号0x1给VCU；
-               BCM接收VCU下发的“挡位控制信号”0x2后，输出“R挡控制指令”高电平48V，给电机控制器，同时输出“倒车灯控制指令”12V高电平，控制倒车灯继电器吸合，反馈挡位状态信号0x2给VCU；</t>
-  </si>
-  <si>
-    <t>R挡开关信号</t>
-  </si>
-  <si>
-    <t>R挡控制指令</t>
-  </si>
-  <si>
-    <t>倒车灯控制指令</t>
-  </si>
-  <si>
-    <t>油门控制</t>
-  </si>
-  <si>
-    <t>油门开关信号12V</t>
-  </si>
-  <si>
-    <t>油门使能信号</t>
-  </si>
-  <si>
-    <t>油门使能信号48V</t>
-  </si>
-  <si>
-    <t>1.在有人模式下，BCM接收到“油门开关信号12V”，输出“油门使能信号48V”给电机控制器；
-2.在无人模式下，BCM接收到“油门开关信号12V”，不执行任何动作；
-3.在无人模式下，BCM接收VCU下发“油门使能信号0x1”，输出“油门控制信号48V”给电机控制器。</t>
-  </si>
-  <si>
-    <t>油门采集信号0~5V</t>
-  </si>
-  <si>
-    <t>油门VCU信号0~5V</t>
-  </si>
-  <si>
-    <t>油门控制信号0~5V</t>
-  </si>
-  <si>
-    <t>油门信号反馈</t>
-  </si>
-  <si>
-    <t>1.在有人模式下，BCM接收到“油门采集信号0~5V”，完全模拟采集信号，输出“油门控制信号0~5V”给电机控制器；
-2.在无人模式下，BCM接收到“油门采集信号0~5V”，不执行任何动作；
-3.在无人模式下，BCM接收VCU下发“油门信号1”，输出“油门控制信号0~5V”给电机控制器。(油门信号0-5V对应0-100%最大油门信号)</t>
-  </si>
-  <si>
-    <t>车速信号</t>
-  </si>
-  <si>
-    <t>车速传感器信号</t>
-  </si>
-  <si>
-    <t>BCM采集从车速传感器硬线连接到仪表的“车速传感器信号”后换算成车速信号发给VCU。（每转8个脉冲信号）</t>
-  </si>
-  <si>
-    <r>
-      <t>自动驾驶状态的切换有两种方法：</t>
-    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.手动操作自动驾驶切换开关，实现自动驾驶/人工驾驶状态的切换。
-  开关闭合高电平12V，为无人驾驶模式，BCM向VCU反馈“自动驾驶状态信息0x1”
-  开关断开低电平0V，为有人驾驶模式，BCM向VCU反馈“自动驾驶状态信息0x0”，有人模式下BCM不执行VCU任何指令。
-2.VCU通过CAN总线给BCM发送自动驾驶指令信号0x0为人工驾驶、0x1为自动驾驶。
-在自动驾驶模式下，BCM转向、制动相关信息发送给VCU，VCU判定是否人工干预了驾驶，当判定人工干预后切换到人工驾驶模式。且此时切换为人工模式后，禁止自动切回到无人驾驶模式。若确需切回，则手动将自动驾驶开关先断开切换到有人模式，再闭合切换到无人模式，此时方才可切回到无人驾驶模式。有人模式下BCM不执行VCU任何指令。
-</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>1.在有人模式下，BCM给制动ECU输出“主动制动使能”信号0x0，制动ECU不执行主动制动。此时刹车力度由人工自行调节。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.在无人模式下，BCM采集到“刹车开关信号”低电平</t>
+      <t>1.在有人模式下，BCM给制动ECU输出“主动制动使能”信号0x0，制动ECU不执行主动制动。此时刹车力度由人工自行调节。
+2.在无人模式下，BCM采集到“刹车开关信号”低电平</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -377,32 +351,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>后，持续给制动ECU硬线“主动制动控制指令”高电平12V，制动ECU执行主动制动6Mpa，同时BCM将油门及挡位信号置零，直到车辆停止。车辆停止后，BCM将驾驶模式切换为有人驾驶模式。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3.在无人模式下，当人踩踏制动踏板至“主缸制动压力回馈大于5.5Mpa”时，主动制动会自动退出工作，当“主缸制动压力回馈小于5.5Mpa”后，主动制动会自动再次启动，执行主动制动压力设定值。</t>
+      <t>后，持续给制动ECU硬线“主动制动控制指令”高电平12V，制动ECU执行主动制动6Mpa，同时BCM将油门及挡位信号置零，直到车辆停止。车辆停止后，BCM将驾驶模式切换为有人驾驶模式。
+3.在无人模式下，当人踩踏制动踏板至“主缸制动压力回馈大于5.5Mpa”时，主动制动会自动退出工作，当“主缸制动压力回馈小于5.5Mpa”后，主动制动会自动再次启动，执行主动制动压力设定值。</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -411,7 +365,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,14 +409,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -470,24 +416,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -519,86 +458,68 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -905,383 +826,384 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16:F18"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="128.75" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="128.75" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:6" ht="24" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:6" ht="48.95" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="130.5" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="27" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="33.950000000000003" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="36" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="36" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" ht="36.950000000000003" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="36.950000000000003" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
-      <c r="B6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:6" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="23"/>
-      <c r="B11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
-      <c r="B12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23"/>
-      <c r="B13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="23"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="25" t="s">
+    <row r="15" spans="1:6" ht="84" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="12" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="33" customHeight="1">
+      <c r="A16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22" t="s">
+      <c r="B16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="D16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="F16" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="17" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="33" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="24" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="33" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="19"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" ht="47.1" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="23" t="s">
+      <c r="B19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="11" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="45.95" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="23"/>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="F20" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="11" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="14" t="s">
+      <c r="B21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F25" s="8"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="F25" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="E16:E18"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A10:A14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1295,7 +1217,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1309,7 +1231,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
